--- a/admin/uploads/tempalte_th1688.xlsx
+++ b/admin/uploads/tempalte_th1688.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tên tiếng việt</t>
   </si>
@@ -56,15 +56,6 @@
     <t>noted</t>
   </si>
   <si>
-    <t>áo nữ</t>
-  </si>
-  <si>
-    <t>女装</t>
-  </si>
-  <si>
-    <t>noted2</t>
-  </si>
-  <si>
     <t>mavandon</t>
   </si>
   <si>
@@ -74,7 +65,13 @@
     <t>Kich thuoc Kg</t>
   </si>
   <si>
-    <t xml:space="preserve">giay bom bom </t>
+    <t>Ty gia tệ</t>
+  </si>
+  <si>
+    <t>gia van chuyen</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ %</t>
   </si>
 </sst>
 </file>
@@ -425,25 +422,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -455,19 +454,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -478,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="E2" s="3">
         <v>50</v>
@@ -486,92 +494,62 @@
       <c r="F2" s="3">
         <v>2.33</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3">
+        <v>3650</v>
+      </c>
+      <c r="H2" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.21</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.33</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.21</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -580,13 +558,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/uploads/tempalte_th1688.xlsx
+++ b/admin/uploads/tempalte_th1688.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Tên tiếng việt</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Phí dịch vụ %</t>
+  </si>
+  <si>
+    <t>áo nu</t>
+  </si>
+  <si>
+    <t>giay deo</t>
+  </si>
+  <si>
+    <t>sach vo</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,11 +442,14 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="8" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -511,60 +523,116 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3650</v>
+      </c>
+      <c r="H3" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3650</v>
+      </c>
+      <c r="H4" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3650</v>
+      </c>
+      <c r="H5" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
